--- a/data/usda-families/mortality/mortality.xlsx
+++ b/data/usda-families/mortality/mortality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/resazurin-assay-development/data/usda-families/mortality/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DD6340-D346-824F-A51C-01DFAC8F01A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0131F1B-38E0-E941-8EFD-3A12761A6895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6460" yWindow="1800" windowWidth="28040" windowHeight="16900" xr2:uid="{F2EBC79F-879C-C244-AACF-32B6A2FCF28D}"/>
+    <workbookView xWindow="47940" yWindow="-920" windowWidth="17040" windowHeight="16780" xr2:uid="{F2EBC79F-879C-C244-AACF-32B6A2FCF28D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="29">
   <si>
     <t>A1</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>mortality</t>
+  </si>
+  <si>
+    <t>empty shell, remove</t>
   </si>
 </sst>
 </file>
@@ -499,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3A4713-0464-224E-B325-46793CB46756}">
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1346,6 +1349,284 @@
         <v>0</v>
       </c>
     </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>20250527</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>20250527</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>20250527</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>20250527</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>20250527</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>20250527</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>20250527</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>20250527</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>20250527</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>20250527</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>20250527</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>20250527</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>20250527</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>20250527</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>20250527</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>20250527</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>20250527</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>20250527</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>20250527</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>20250527</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>20250527</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>20250527</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>20250527</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>20250527</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>20250527</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/usda-families/mortality/mortality.xlsx
+++ b/data/usda-families/mortality/mortality.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/resazurin-assay-development/data/usda-families/mortality/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0131F1B-38E0-E941-8EFD-3A12761A6895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157488AE-FD07-EF4D-A978-40440B486C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47940" yWindow="-920" windowWidth="17040" windowHeight="16780" xr2:uid="{F2EBC79F-879C-C244-AACF-32B6A2FCF28D}"/>
+    <workbookView xWindow="17040" yWindow="760" windowWidth="13200" windowHeight="17760" xr2:uid="{F2EBC79F-879C-C244-AACF-32B6A2FCF28D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="31">
   <si>
     <t>A1</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>empty shell, remove</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resazurin spilled, remove </t>
   </si>
 </sst>
 </file>
@@ -502,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3A4713-0464-224E-B325-46793CB46756}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1455,8 +1461,8 @@
       <c r="B86" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C86">
-        <v>0</v>
+      <c r="C86" t="s">
+        <v>29</v>
       </c>
       <c r="D86" t="s">
         <v>28</v>
@@ -1572,7 +1578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>20250527</v>
       </c>
@@ -1583,7 +1589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>20250527</v>
       </c>
@@ -1594,7 +1600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>20250527</v>
       </c>
@@ -1605,7 +1611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>20250527</v>
       </c>
@@ -1616,7 +1622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>20250527</v>
       </c>
@@ -1624,6 +1630,287 @@
         <v>24</v>
       </c>
       <c r="C101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>20250603</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>20250603</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>20250603</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>20250603</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>20250603</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>20250603</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D107" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>20250603</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>20250603</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>20250603</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>20250603</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>20250603</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>20250603</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>20250603</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D114" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>20250603</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>20250603</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>20250603</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C117" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>20250603</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>20250603</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>20250603</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>20250603</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>20250603</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>20250603</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>20250603</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C124" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>20250603</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>20250603</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C126" s="1">
         <v>0</v>
       </c>
     </row>

--- a/data/usda-families/mortality/mortality.xlsx
+++ b/data/usda-families/mortality/mortality.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/resazurin-assay-development/data/usda-families/mortality/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157488AE-FD07-EF4D-A978-40440B486C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE86CB2-AB7D-0842-83CD-C2310CEA1104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17040" yWindow="760" windowWidth="13200" windowHeight="17760" xr2:uid="{F2EBC79F-879C-C244-AACF-32B6A2FCF28D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="31">
   <si>
     <t>A1</t>
   </si>
@@ -508,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3A4713-0464-224E-B325-46793CB46756}">
-  <dimension ref="A1:D126"/>
+  <dimension ref="A1:D151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1914,6 +1914,281 @@
         <v>0</v>
       </c>
     </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>20250610</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>20250610</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>20250610</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>20250610</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>20250610</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>20250610</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>20250610</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C133" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>20250610</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>20250610</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>20250610</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>20250610</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>20250610</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>20250610</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>20250610</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>20250610</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C141" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>20250610</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C142" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>20250610</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C143" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>20250610</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C144" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>20250610</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C145" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>20250610</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C146" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>20250610</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C147" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>20250610</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C148" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>20250610</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C149" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>20250610</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C150" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>20250610</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C151" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
